--- a/medicine/Enfance/André_Massepain/André_Massepain.xlsx
+++ b/medicine/Enfance/André_Massepain/André_Massepain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Massepain</t>
+          <t>André_Massepain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Kédros, de nom d'éditeur André Massepain, né Virgile Solomonidès à Bucarest le 1er janvier 1917 et mort à Ivry-sur-Seine le 31 octobre 1999[1],[2], est un écrivain grec de langue française et un traducteur en langue roumaine[3], allemande[4] et anglaise[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Kédros, de nom d'éditeur André Massepain, né Virgile Solomonidès à Bucarest le 1er janvier 1917 et mort à Ivry-sur-Seine le 31 octobre 1999 est un écrivain grec de langue française et un traducteur en langue roumaine, allemande et anglaise.
 Auteur d'une douzaine de romans pour adultes sous le pseudonyme d'André Kedros, il a aussi écrit de très nombreux textes pour les jeunes, sous le pseudonyme d'André Massepain, qui lui ont valu plusieurs prix.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Massepain</t>
+          <t>André_Massepain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,20 +524,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1917 à Bucarest de parents grecs[6], Virgile Solomonidès est étudiant à Prague où il obtient un doctorat ès lettres à l'université Charles de Prague. Après avoir soutenu et obtenu son doctorat ès sciences en 1938, il quitte Prague pour retourner en Roumanie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1917 à Bucarest de parents grecs, Virgile Solomonidès est étudiant à Prague où il obtient un doctorat ès lettres à l'université Charles de Prague. Après avoir soutenu et obtenu son doctorat ès sciences en 1938, il quitte Prague pour retourner en Roumanie.
 Après le décès précoce de sa première épouse, se retrouvant célibataire, pourvu de bagages intellectuels de valeur pour l'époque — diplômes de Prague —, il décide de vivre dans le pays de son père (né à Corfou), dont il a gardé la nationalité grecque. Si auparavant en Roumanie, il était engagé politiquement dans des mouvements de gauche, il n'a cependant jamais été au parti communiste.
-Il vit en Grèce environ cinq ans, jusqu'à la veille de la guerre civile en 1945, date à laquelle, en tant que professeur de philosophie[7] à l'Institut français d'Athènes, il obtient une bourse de l'Éducation nationale grecque (de même que sa sœur Aurélie) pour partir pour la France à bord du Mataroa.
-Historiquement, ce départ, organisé en accord par les ministères français et grecs, constituait un certain espoir d'épargner la « jeunesse intellectuelle » de la Grèce d'alors, au début de la guerre civile, pour leur permettre de parfaire leurs études en France[8]. 
+Il vit en Grèce environ cinq ans, jusqu'à la veille de la guerre civile en 1945, date à laquelle, en tant que professeur de philosophie à l'Institut français d'Athènes, il obtient une bourse de l'Éducation nationale grecque (de même que sa sœur Aurélie) pour partir pour la France à bord du Mataroa.
+Historiquement, ce départ, organisé en accord par les ministères français et grecs, constituait un certain espoir d'épargner la « jeunesse intellectuelle » de la Grèce d'alors, au début de la guerre civile, pour leur permettre de parfaire leurs études en France. 
 Après son arrivée à Paris, où il a pour premier toit le pavillon grec dans la résidence universitaire de Paris pendant plusieurs mois, il se retrouve par la suite sans travail et décrit des débuts difficiles.
 Pour subvenir à ses besoins, il fait des travaux en psychopédagogie. Sollicité par l'ambassade de Roumanie, il accepte aussi, à contre-cœur, de travailler pour celle-ci — il démissionnera plus tard. 
 En 1949 — année officielle de la fin de la guerre civile grecque —, il fait la rencontre décisive de Louis Aragon ; ce dernier lui ouvre une carrière d'écrivain par la reconnaissance qu'il porta à l'un de ses tout premiers livres, Le Navire en pleine ville. Cela lui permit aussi d'être membre d'honneur du CNE, le Comité national des écrivains, à Paris.
-En 1966, il écrit La Résistance grecque (1940-1944)[9], pour lequel il est honoré de la Légion d'honneur pour étrangers.[Quoi ?]
+En 1966, il écrit La Résistance grecque (1940-1944), pour lequel il est honoré de la Légion d'honneur pour étrangers.[Quoi ?]
 De 1966 à 1987, il crée et dirige, aux éditions Robert Laffont, la collection « Plein Vent » destinée aux adolescents. Il continue, par ailleurs, à écrire.
-Famille
-Sa sœur cadette, Aurélie Solomonidès, grecque également, est docteur en histoire de l'art à la Sorbonne, et fut professeur à l'Alliance française de Paris.
-Il est le père d'Hélène Ramdani, créatrice des éphémères éditions Le Navire en pleine ville (2007-2009)[10],[11], ainsi nommées d'après le roman éponyme de son père.
 </t>
         </is>
       </c>
@@ -536,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Massepain</t>
+          <t>André_Massepain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,14 +562,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa sœur cadette, Aurélie Solomonidès, grecque également, est docteur en histoire de l'art à la Sorbonne, et fut professeur à l'Alliance française de Paris.
+Il est le père d'Hélène Ramdani, créatrice des éphémères éditions Le Navire en pleine ville (2007-2009) ainsi nommées d'après le roman éponyme de son père.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Massepain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Massepain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste exhaustive[12].
-Romans
-1948 : Le Navire en pleine ville, Paris, éditions Hier et Aujourd'hui ; 272 p.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste exhaustive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>André_Massepain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Massepain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1948 : Le Navire en pleine ville, Paris, éditions Hier et Aujourd'hui ; 272 p.
 1949 : L'Odéon, récit suivi des Contes d'après décembre, Paris, éditions Hier et Aujourd'hui ; 255 p.
 1952 : Peuple roi, Paris, Les Amis du livre progressiste (Les Éditeurs français réunis - EFR) ; 275 p.
 1954 : La Fleur nouvelle, Paris, EFR, 280 p.
@@ -574,13 +660,81 @@
 1985 : Le Feu sous la mer, Paris, R. Laffont, 253 p.  (ISBN 2-221-04679-X)
 1991 : Le Grand Jeu de Basilio Salvo, Paris, R. Laffont, 244 p.  (ISBN 2-221-07147-6)
 1994 : Une femme trop aimée, Paris, R. Laffont, 301 p.  (ISBN 2-221-07630-3)
-1999 : Entre chien et loup, Paris, éd. Joëlle Losfeld, 159 p.  (ISBN 2-84412-012-1)
-Documents
-1966 : La Résistance grecque (1940-1944), Paris, R. Laffont, coll. « L'Histoire que nous vivons » ; 544 p.
+1999 : Entre chien et loup, Paris, éd. Joëlle Losfeld, 159 p.  (ISBN 2-84412-012-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>André_Massepain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Massepain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1966 : La Résistance grecque (1940-1944), Paris, R. Laffont, coll. « L'Histoire que nous vivons » ; 544 p.
 1986 : Les Socialistes au pouvoir en Europe, 1981-1985, Paris, Plon, 403 p.  (ISBN 2-259-01431-3)
-1990 : L'Homme à l'œillet, « L'itinéraire d'un jeune intellectuel grec dans la France des années 50 », Paris : R. Laffont, 345 p.  (ISBN 2-221-06492-5)
-Littérature pour la jeunesse
-1959 : La Fusée mystérieuse ; ill. de Françoise Bertier, éditions G. P., coll. « Rouge et Or Souveraine » no 138, 188 p., roman
+1990 : L'Homme à l'œillet, « L'itinéraire d'un jeune intellectuel grec dans la France des années 50 », Paris : R. Laffont, 345 p.  (ISBN 2-221-06492-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>André_Massepain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Massepain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1959 : La Fusée mystérieuse ; ill. de Françoise Bertier, éditions G. P., coll. « Rouge et Or Souveraine » no 138, 188 p., roman
 1960 : Le Derrick aux abeilles ; ill. de Daniel Dupuy, coll. « Rouge et Or Souveraine » no 152, 188 p., roman
 1961 : Une affaire atomique ; ill. de Raoul Auger, coll. « Rouge et Or Souveraine » no 162, 188 p., roman
 1962 : Les Secrets de l'étang ; ill. de Jacques Pecnard, coll. « Rouge et Or Souveraine » no 180 ; 188 p., roman
@@ -592,13 +746,81 @@
 1981 : Un lion chez le coiffeur ; ill. d'Alain Millerand, Paris : Magnard, 28 p., livre d'image
 1981 : Pourquoi le mille-pattes n'a pu rendre visite au grillon ; ill. de Mérel, Paris : Magnard, 22 p., livre d'image  (ISBN 2-210-99406-3)
 1982 : Elle est ronde, toute ronde ; ill. de Mérel, Paris : Magnard, 21 p., livre d'image
-1982 : Le Rayon des étoiles ; ill. d'Évelyne Drouhin, Paris : Magnard Jeunesse, 27 p., livre d'image  (ISBN 2-210-99410-1)
-Édition scolaire
-1981 : Le Temps de lire C.E.1[13], Paris, Bordas, coll. « Blum-Massepain », 128 p.  (ISBN 2-04-015000-5)
-1982 : Le Temps de lire C.E.2[13], Paris, Bordas, coll. « Blum-Massepain », 143 p.  (ISBN 2-04-015013-7)
-1983 : Le Temps de lire C.M.1[13], Paris, Bordas, coll. « Blum-Massepain », 207 p.  (ISBN 2-04-015159-1)
-Prix et récompenses
-1960 : Prix Eugène Dabit du roman populiste pour Le Dernier Voyage du “Port Polis” d'André Kedros
+1982 : Le Rayon des étoiles ; ill. d'Évelyne Drouhin, Paris : Magnard Jeunesse, 27 p., livre d'image  (ISBN 2-210-99410-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>André_Massepain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Massepain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Édition scolaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1981 : Le Temps de lire C.E.1, Paris, Bordas, coll. « Blum-Massepain », 128 p.  (ISBN 2-04-015000-5)
+1982 : Le Temps de lire C.E.2, Paris, Bordas, coll. « Blum-Massepain », 143 p.  (ISBN 2-04-015013-7)
+1983 : Le Temps de lire C.M.1, Paris, Bordas, coll. « Blum-Massepain », 207 p.  (ISBN 2-04-015159-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>André_Massepain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Massepain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1960 : Prix Eugène Dabit du roman populiste pour Le Dernier Voyage du “Port Polis” d'André Kedros
 1961 : Prix de La Joie par les livres pour Le Derrick aux abeilles
 1963 : Grand prix du Salon de l’enfance avec La Grotte aux ours
 1978 : Prix européen de littérature pour la jeunesse pour l’ensemble de son œuvre (à Padoue)</t>
